--- a/Famille/Global.xlsx
+++ b/Famille/Global.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zinaon\git\Genealogie\Famille\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D631AA-CD3B-4B98-8863-D05BA445E8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFBB51E-CC66-4511-BFD6-7C80CCA02FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{0B8BDED2-C876-4219-A4EE-2B98E8105897}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="443">
   <si>
     <t>N°</t>
   </si>
@@ -801,9 +801,6 @@
     <t>22/05/1864</t>
   </si>
   <si>
-    <t>02/01/1848</t>
-  </si>
-  <si>
     <t>Saint Junien</t>
   </si>
   <si>
@@ -1300,6 +1297,75 @@
   </si>
   <si>
     <t>Louise</t>
+  </si>
+  <si>
+    <t>27/01/1848</t>
+  </si>
+  <si>
+    <t>16/10/1831</t>
+  </si>
+  <si>
+    <t>10/10/1810</t>
+  </si>
+  <si>
+    <t>07/02/1826</t>
+  </si>
+  <si>
+    <t>Saint-Victurnien</t>
+  </si>
+  <si>
+    <t>LAVOUTTE</t>
+  </si>
+  <si>
+    <t>25/10/1811</t>
+  </si>
+  <si>
+    <t>ALLEGRAUD</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>VARIELLE</t>
+  </si>
+  <si>
+    <t>Cognac la forêt</t>
+  </si>
+  <si>
+    <t>TROUTAUD</t>
+  </si>
+  <si>
+    <t>Cognac la foret</t>
+  </si>
+  <si>
+    <t>24/01/1809</t>
+  </si>
+  <si>
+    <t>24/04/1788</t>
+  </si>
+  <si>
+    <t>03/10/1788</t>
+  </si>
+  <si>
+    <t>PECHE</t>
+  </si>
+  <si>
+    <t>13/10/1820</t>
+  </si>
+  <si>
+    <t>16/01/1824</t>
+  </si>
+  <si>
+    <t>03/01/1832</t>
+  </si>
+  <si>
+    <t>30/06/1832</t>
+  </si>
+  <si>
+    <t>15/07/1825</t>
+  </si>
+  <si>
+    <t>26/01/1829</t>
   </si>
 </sst>
 </file>
@@ -1424,12 +1490,12 @@
     <tableColumn id="5" xr3:uid="{7012F2EB-5A9B-4C4E-ADEE-C5153B236B8B}" name="Lieu naissance"/>
     <tableColumn id="6" xr3:uid="{AC0B7C6F-39E5-44DA-A983-E0ADD53C9978}" name="Date mariage"/>
     <tableColumn id="7" xr3:uid="{319B3D1D-1C51-4654-9129-454B0D846915}" name="Lieu mariage"/>
-    <tableColumn id="11" xr3:uid="{94319078-F8E6-4DD9-90DA-CCF2559C57A9}" name="Date décès" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{94319078-F8E6-4DD9-90DA-CCF2559C57A9}" name="Date décès" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{6452005E-B0B8-4910-9A60-CBF6A33A3ED9}" name="Lieu décès"/>
-    <tableColumn id="9" xr3:uid="{E37C3C5C-A389-4882-95CA-79A8C3730025}" name="N° Père" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{E37C3C5C-A389-4882-95CA-79A8C3730025}" name="N° Père" dataDxfId="3">
       <calculatedColumnFormula>Tableau13[[#This Row],[N°]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4AD1E9DB-87A6-47DE-BBAA-FD68AD38B0D2}" name="N°Mère" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{4AD1E9DB-87A6-47DE-BBAA-FD68AD38B0D2}" name="N°Mère" dataDxfId="2">
       <calculatedColumnFormula>Tableau13[[#This Row],[N°]]*2+1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4473,10 +4539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C738DB9D-15CD-457A-B92C-674AA9158BB4}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="L24:O24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,10 +4846,10 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" t="s">
         <v>254</v>
-      </c>
-      <c r="E11" t="s">
-        <v>255</v>
       </c>
       <c r="J11">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -4805,16 +4871,16 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" t="s">
         <v>256</v>
-      </c>
-      <c r="E12" t="s">
-        <v>257</v>
       </c>
       <c r="H12" s="2">
         <v>5280</v>
       </c>
       <c r="I12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J12">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -4833,19 +4899,19 @@
         <v>205</v>
       </c>
       <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" t="s">
         <v>258</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>259</v>
-      </c>
-      <c r="E13" t="s">
-        <v>260</v>
       </c>
       <c r="H13" s="2">
         <v>12435</v>
       </c>
       <c r="I13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J13">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -4864,16 +4930,16 @@
         <v>202</v>
       </c>
       <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
         <v>262</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>263</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>264</v>
-      </c>
-      <c r="H14" t="s">
-        <v>265</v>
       </c>
       <c r="I14" t="s">
         <v>247</v>
@@ -4898,10 +4964,10 @@
         <v>181</v>
       </c>
       <c r="D15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" t="s">
         <v>266</v>
-      </c>
-      <c r="E15" t="s">
-        <v>267</v>
       </c>
       <c r="J15">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -4920,16 +4986,16 @@
         <v>199</v>
       </c>
       <c r="C16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" t="s">
         <v>268</v>
-      </c>
-      <c r="D16" t="s">
-        <v>269</v>
       </c>
       <c r="E16" t="s">
         <v>240</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J16">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -4951,7 +5017,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
         <v>233</v>
@@ -4976,13 +5042,13 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" t="s">
         <v>272</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>273</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
       </c>
       <c r="G18" t="s">
         <v>240</v>
@@ -5007,7 +5073,7 @@
         <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" t="s">
         <v>240</v>
@@ -5032,13 +5098,13 @@
         <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
         <v>240</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I20" t="s">
         <v>233</v>
@@ -5060,16 +5126,16 @@
         <v>209</v>
       </c>
       <c r="C21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" t="s">
         <v>278</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>279</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>280</v>
-      </c>
-      <c r="H21" t="s">
-        <v>281</v>
       </c>
       <c r="I21" t="s">
         <v>233</v>
@@ -5093,8 +5159,17 @@
       <c r="C22" t="s">
         <v>89</v>
       </c>
-      <c r="D22">
-        <v>1812</v>
+      <c r="D22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" t="s">
+        <v>432</v>
+      </c>
+      <c r="F22" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5107,6 +5182,12 @@
       <c r="C23" t="s">
         <v>47</v>
       </c>
+      <c r="D23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -5119,10 +5200,10 @@
         <v>89</v>
       </c>
       <c r="D24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" t="s">
         <v>417</v>
-      </c>
-      <c r="E24" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5133,7 +5214,7 @@
         <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5147,16 +5228,16 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5170,10 +5251,10 @@
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J27">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5195,16 +5276,16 @@
         <v>97</v>
       </c>
       <c r="D28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="E28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F28" t="s">
-        <v>285</v>
-      </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J28">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5226,10 +5307,10 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J29">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5259,7 +5340,7 @@
         <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5276,10 +5357,10 @@
         <v>240</v>
       </c>
       <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" t="s">
         <v>288</v>
-      </c>
-      <c r="H32" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5310,7 +5391,7 @@
         <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I34" t="s">
         <v>233</v>
@@ -5335,10 +5416,10 @@
         <v>203</v>
       </c>
       <c r="C36" t="s">
+        <v>290</v>
+      </c>
+      <c r="H36" t="s">
         <v>291</v>
-      </c>
-      <c r="H36" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5352,7 +5433,7 @@
         <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I37" t="s">
         <v>240</v>
@@ -5369,7 +5450,7 @@
         <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I38" t="s">
         <v>242</v>
@@ -5380,13 +5461,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" t="s">
         <v>295</v>
       </c>
-      <c r="C39" t="s">
+      <c r="H39" t="s">
         <v>296</v>
-      </c>
-      <c r="H39" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5400,10 +5481,10 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5425,10 +5506,10 @@
         <v>47</v>
       </c>
       <c r="H41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I41" t="s">
         <v>299</v>
-      </c>
-      <c r="I41" t="s">
-        <v>300</v>
       </c>
       <c r="J41">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5450,7 +5531,7 @@
         <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E42" t="s">
         <v>242</v>
@@ -5472,10 +5553,10 @@
         <v>219</v>
       </c>
       <c r="C43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" t="s">
         <v>302</v>
-      </c>
-      <c r="D43" t="s">
-        <v>303</v>
       </c>
       <c r="E43" t="s">
         <v>233</v>
@@ -5489,6 +5570,90 @@
         <v>87</v>
       </c>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>425</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>434</v>
+      </c>
+      <c r="E44" t="s">
+        <v>432</v>
+      </c>
+      <c r="F44" t="s">
+        <v>433</v>
+      </c>
+      <c r="G44" t="s">
+        <v>430</v>
+      </c>
+      <c r="J44">
+        <f>Tableau14[[#This Row],[N°]]*2</f>
+        <v>88</v>
+      </c>
+      <c r="K44">
+        <f>Tableau14[[#This Row],[N° Père]]+1</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>431</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" t="s">
+        <v>432</v>
+      </c>
+      <c r="H45" t="s">
+        <v>423</v>
+      </c>
+      <c r="I45" t="s">
+        <v>430</v>
+      </c>
+      <c r="J45">
+        <f>Tableau14[[#This Row],[N°]]*2</f>
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <f>Tableau14[[#This Row],[N° Père]]+1</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>427</v>
+      </c>
+      <c r="C46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>429</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
@@ -5505,10 +5670,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" t="s">
         <v>419</v>
-      </c>
-      <c r="C49" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5550,10 +5715,10 @@
         <v>1760</v>
       </c>
       <c r="H56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5570,10 +5735,10 @@
         <v>1762</v>
       </c>
       <c r="H57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5590,10 +5755,10 @@
         <v>1770</v>
       </c>
       <c r="H58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5604,19 +5769,19 @@
         <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D59">
         <v>1768</v>
       </c>
       <c r="E59" t="s">
+        <v>307</v>
+      </c>
+      <c r="H59" t="s">
         <v>308</v>
       </c>
-      <c r="H59" t="s">
-        <v>309</v>
-      </c>
       <c r="I59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5627,7 +5792,7 @@
         <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J80">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5638,7 +5803,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5649,7 +5814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5660,7 +5825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5671,7 +5836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5682,18 +5847,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C85" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5704,7 +5869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5713,6 +5878,68 @@
       </c>
       <c r="C87" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+      <c r="M90" t="s">
+        <v>437</v>
+      </c>
+      <c r="N90" t="s">
+        <v>438</v>
+      </c>
+      <c r="O90" t="s">
+        <v>439</v>
+      </c>
+      <c r="P90" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="M91" t="s">
+        <v>441</v>
+      </c>
+      <c r="N91" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,7 +6038,7 @@
         <v>201</v>
       </c>
       <c r="C160" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,10 +6049,10 @@
         <v>230</v>
       </c>
       <c r="C161" t="s">
+        <v>312</v>
+      </c>
+      <c r="H161" t="s">
         <v>313</v>
-      </c>
-      <c r="H161" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5896,16 +6123,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
         <v>338</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>339</v>
-      </c>
-      <c r="E2" t="s">
-        <v>340</v>
       </c>
       <c r="F2" s="1">
         <v>6645</v>
@@ -5925,13 +6152,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
         <v>341</v>
-      </c>
-      <c r="D3" t="s">
-        <v>342</v>
       </c>
       <c r="E3" t="s">
         <v>234</v>
@@ -5942,19 +6169,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" t="s">
         <v>343</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>344</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>345</v>
-      </c>
-      <c r="F4" t="s">
-        <v>346</v>
       </c>
       <c r="G4" t="s">
         <v>234</v>
@@ -5965,16 +6192,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" t="s">
         <v>347</v>
-      </c>
-      <c r="E5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5982,22 +6209,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
         <v>349</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>350</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>351</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>352</v>
       </c>
-      <c r="F6" t="s">
-        <v>353</v>
-      </c>
       <c r="G6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6005,16 +6232,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6022,28 +6249,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" t="s">
         <v>355</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>356</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>357</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" t="s">
         <v>358</v>
       </c>
-      <c r="G8" t="s">
-        <v>345</v>
-      </c>
-      <c r="H8" t="s">
-        <v>359</v>
-      </c>
       <c r="I8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6051,22 +6278,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
       </c>
       <c r="D9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" t="s">
         <v>360</v>
       </c>
-      <c r="E9" t="s">
-        <v>345</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>361</v>
-      </c>
-      <c r="I9" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6074,19 +6301,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
       </c>
       <c r="D10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" t="s">
         <v>363</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>364</v>
-      </c>
-      <c r="F10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6094,16 +6321,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" t="s">
         <v>366</v>
-      </c>
-      <c r="E11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6111,28 +6338,28 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" t="s">
         <v>368</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>369</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" t="s">
         <v>370</v>
       </c>
-      <c r="F12" t="s">
-        <v>374</v>
-      </c>
-      <c r="G12" t="s">
-        <v>352</v>
-      </c>
-      <c r="H12" t="s">
-        <v>371</v>
-      </c>
       <c r="I12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6140,22 +6367,22 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" t="s">
         <v>372</v>
       </c>
-      <c r="E13" t="s">
-        <v>373</v>
-      </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6163,28 +6390,28 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
         <v>378</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" t="s">
+        <v>375</v>
+      </c>
+      <c r="H14" t="s">
         <v>379</v>
       </c>
-      <c r="E14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" t="s">
-        <v>376</v>
-      </c>
-      <c r="H14" t="s">
-        <v>380</v>
-      </c>
       <c r="I14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6192,21 +6419,21 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6214,16 +6441,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" t="s">
         <v>382</v>
-      </c>
-      <c r="E17" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6231,22 +6458,22 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" t="s">
         <v>384</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>385</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>386</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>387</v>
-      </c>
-      <c r="G18" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6254,16 +6481,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" t="s">
         <v>389</v>
-      </c>
-      <c r="E19" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6271,7 +6498,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
         <v>93</v>
@@ -6285,10 +6512,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6296,7 +6523,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -6310,7 +6537,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -6321,16 +6548,16 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6338,10 +6565,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6349,22 +6576,22 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D26" t="s">
         <v>394</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>395</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>396</v>
       </c>
-      <c r="H26" t="s">
-        <v>397</v>
-      </c>
       <c r="I26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6372,22 +6599,22 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
       <c r="D27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" t="s">
+        <v>372</v>
+      </c>
+      <c r="H27" t="s">
         <v>398</v>
       </c>
-      <c r="E27" t="s">
-        <v>373</v>
-      </c>
-      <c r="H27" t="s">
-        <v>399</v>
-      </c>
       <c r="I27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6395,7 +6622,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -6404,10 +6631,10 @@
         <v>1774</v>
       </c>
       <c r="H28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -6415,16 +6642,16 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -6432,7 +6659,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C30" t="s">
         <v>89</v>
@@ -6441,10 +6668,10 @@
         <v>1762</v>
       </c>
       <c r="H30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -6452,26 +6679,26 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6479,7 +6706,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C34" t="s">
         <v>93</v>
@@ -6490,10 +6717,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -6501,7 +6728,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
         <v>97</v>
@@ -6512,10 +6739,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6523,19 +6750,19 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -6543,13 +6770,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -6557,7 +6784,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C52" t="s">
         <v>238</v>
@@ -6568,7 +6795,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
@@ -6579,7 +6806,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" t="s">
         <v>89</v>
@@ -6590,7 +6817,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C55" t="s">
         <v>82</v>
@@ -6601,7 +6828,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C56" t="s">
         <v>93</v>
@@ -6612,7 +6839,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
         <v>181</v>
@@ -6623,7 +6850,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C58" t="s">
         <v>95</v>
@@ -6634,7 +6861,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
         <v>181</v>
@@ -6645,7 +6872,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C60" t="s">
         <v>97</v>
@@ -6654,10 +6881,10 @@
         <v>1746</v>
       </c>
       <c r="H60" t="s">
+        <v>407</v>
+      </c>
+      <c r="I60" t="s">
         <v>408</v>
-      </c>
-      <c r="I60" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -6665,16 +6892,16 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C61" t="s">
         <v>181</v>
       </c>
       <c r="H61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6682,7 +6909,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
@@ -6693,19 +6920,19 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D63">
         <v>1752</v>
       </c>
       <c r="H63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/Famille/Global.xlsx
+++ b/Famille/Global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zinaon\git\Genealogie\Famille\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFBB51E-CC66-4511-BFD6-7C80CCA02FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EDC8F2-7B37-4F9F-8145-22346C85EE40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{0B8BDED2-C876-4219-A4EE-2B98E8105897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="3" xr2:uid="{0B8BDED2-C876-4219-A4EE-2B98E8105897}"/>
   </bookViews>
   <sheets>
     <sheet name="Branche ARNAUD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="460">
   <si>
     <t>N°</t>
   </si>
@@ -1254,12 +1254,6 @@
     <t>Sébastienne</t>
   </si>
   <si>
-    <t>08/04/1807</t>
-  </si>
-  <si>
-    <t>1814 ou avant</t>
-  </si>
-  <si>
     <t>10/12/1786</t>
   </si>
   <si>
@@ -1366,6 +1360,63 @@
   </si>
   <si>
     <t>26/01/1829</t>
+  </si>
+  <si>
+    <t>EMEREAU</t>
+  </si>
+  <si>
+    <t>Prob saint sébastien</t>
+  </si>
+  <si>
+    <t>04/04/1807</t>
+  </si>
+  <si>
+    <t>16/04/1807</t>
+  </si>
+  <si>
+    <t>ENAUD</t>
+  </si>
+  <si>
+    <t>Claudine</t>
+  </si>
+  <si>
+    <t>PORCHEU</t>
+  </si>
+  <si>
+    <t>29 Avril 1749</t>
+  </si>
+  <si>
+    <t>Julien René</t>
+  </si>
+  <si>
+    <t>1 frère, Guillaume LALEAU</t>
+  </si>
+  <si>
+    <t>Avant 1779</t>
+  </si>
+  <si>
+    <t>19 Janvier 1779</t>
+  </si>
+  <si>
+    <t>1 autre fils né en 1780, mort en 1800</t>
+  </si>
+  <si>
+    <t>10 Mai 1787</t>
+  </si>
+  <si>
+    <t>né vers 1700</t>
+  </si>
+  <si>
+    <t>13 Mai 1785</t>
+  </si>
+  <si>
+    <t>née vers 1729</t>
+  </si>
+  <si>
+    <t>6 Juin 1785</t>
+  </si>
+  <si>
+    <t>né vers 1728</t>
   </si>
 </sst>
 </file>
@@ -1407,21 +1458,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1528,8 +1573,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4BC4CE3B-D587-490A-9281-7668329B0893}" name="Tableau15" displayName="Tableau15" ref="A1:K63" totalsRowShown="0">
-  <autoFilter ref="A1:K63" xr:uid="{446BB003-0733-415B-B650-851085C182C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4BC4CE3B-D587-490A-9281-7668329B0893}" name="Tableau15" displayName="Tableau15" ref="A1:K80" totalsRowShown="0">
+  <autoFilter ref="A1:K80" xr:uid="{446BB003-0733-415B-B650-851085C182C5}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{CE8B9A6C-5B3A-4625-BB49-BFDC8FD68DCB}" name="N°"/>
     <tableColumn id="2" xr3:uid="{B060B8C7-2FD9-409F-A492-8406B01FA3C6}" name="Nom"/>
@@ -1863,1619 +1908,1379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>1121</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
+      <c r="J2">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>4</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7">
+      <c r="F3"/>
+      <c r="H3" s="1">
         <v>16119</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>6</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="J4">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>8</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7">
+      <c r="F5"/>
+      <c r="H5" s="1">
         <v>3477</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>10</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6"/>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>12</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="F7"/>
+      <c r="J7">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>14</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>16</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>1804</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="F9"/>
+      <c r="J9">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>18</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>20</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="F11"/>
+      <c r="J11">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>22</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J12">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>24</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="F13"/>
+      <c r="J13">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>26</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="F14"/>
+      <c r="J14">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>28</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="F15"/>
+      <c r="J15">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>30</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>1782</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>1811</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>32</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>1781</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="F17"/>
+      <c r="J17">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>34</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>1771</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>36</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>1773</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="F19"/>
+      <c r="H19" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>38</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>1775</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="J20">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>40</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>1775</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="F21"/>
+      <c r="H21" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>42</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22"/>
+      <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>44</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>1791</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
+      <c r="F23"/>
+      <c r="J23">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>46</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>1792</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
+      <c r="F24"/>
+      <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>48</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>1792</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
+      <c r="F25"/>
+      <c r="J25">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>50</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <v>1795</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
+      <c r="F26"/>
+      <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="J26">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>52</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="D27"/>
+      <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="F27"/>
+      <c r="J27">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>54</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <v>1785</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28"/>
+      <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="J28">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>56</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29"/>
+      <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="F29"/>
+      <c r="J29">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>58</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>1796</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30"/>
+      <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>60</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31"/>
+      <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="F31"/>
+      <c r="J31">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>62</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32">
         <v>1744</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32"/>
+      <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33"/>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="F33"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
+      <c r="F34"/>
+      <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="D35"/>
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="F35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
+      <c r="F36"/>
+      <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36">
         <f>Tableau1[[#This Row],[N°]]*2</f>
         <v>72</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36">
         <f>Tableau1[[#This Row],[N°]]*2+1</f>
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
+      <c r="D37"/>
+      <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="F37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="D38"/>
+      <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
+      <c r="F38"/>
+      <c r="G38" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="D39"/>
+      <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="F39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="D40"/>
+      <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
+      <c r="F40"/>
+      <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41"/>
+      <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="F41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="D42"/>
+      <c r="F42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="D43"/>
+      <c r="F43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="D44"/>
+      <c r="F44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="D45"/>
+      <c r="F45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="D46"/>
+      <c r="F46"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="D47"/>
+      <c r="F47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="D48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="D49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="D50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="D51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="D52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="D53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="D54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="D55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="D56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>57</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="D57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>58</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="D58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="D59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>60</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="D60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>61</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="D61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>62</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="D62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="D63"/>
+      <c r="F63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3500,7 +3305,7 @@
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3526,7 +3331,7 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
       <c r="I1" t="s">
@@ -3558,7 +3363,7 @@
       <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2">
         <v>1963</v>
       </c>
       <c r="I2" t="s">
@@ -3589,7 +3394,7 @@
       <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>1975</v>
       </c>
       <c r="I3" t="s">
@@ -3745,7 +3550,7 @@
       <c r="G8" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>142</v>
       </c>
       <c r="I8" t="s">
@@ -3776,7 +3581,7 @@
       <c r="E9" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>145</v>
       </c>
       <c r="I9" t="s">
@@ -4541,8 +4346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C738DB9D-15CD-457A-B92C-674AA9158BB4}">
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,7 +4651,7 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E11" t="s">
         <v>254</v>
@@ -5160,16 +4965,24 @@
         <v>89</v>
       </c>
       <c r="D22" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" t="s">
         <v>422</v>
       </c>
-      <c r="E22" t="s">
-        <v>432</v>
-      </c>
-      <c r="F22" t="s">
-        <v>421</v>
-      </c>
-      <c r="G22" t="s">
-        <v>424</v>
+      <c r="J22">
+        <f>Tableau14[[#This Row],[N°]]*2</f>
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <f>Tableau14[[#This Row],[N° Père]]+1</f>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5183,10 +4996,18 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E23" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+      <c r="J23">
+        <f>Tableau14[[#This Row],[N°]]*2</f>
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <f>Tableau14[[#This Row],[N° Père]]+1</f>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5200,10 +5021,18 @@
         <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="J24">
+        <f>Tableau14[[#This Row],[N°]]*2</f>
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <f>Tableau14[[#This Row],[N° Père]]+1</f>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5214,7 +5043,7 @@
         <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5228,10 +5057,10 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F26" t="s">
         <v>281</v>
@@ -5575,22 +5404,22 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J44">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5606,22 +5435,22 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E45" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H45" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I45" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J45">
         <f>Tableau14[[#This Row],[N°]]*2</f>
@@ -5637,10 +5466,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C46" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -5648,7 +5477,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -5670,10 +5499,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5896,7 +5725,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -5907,22 +5736,22 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C90" t="s">
         <v>89</v>
       </c>
       <c r="M90" t="s">
+        <v>435</v>
+      </c>
+      <c r="N90" t="s">
+        <v>436</v>
+      </c>
+      <c r="O90" t="s">
         <v>437</v>
       </c>
-      <c r="N90" t="s">
+      <c r="P90" t="s">
         <v>438</v>
-      </c>
-      <c r="O90" t="s">
-        <v>439</v>
-      </c>
-      <c r="P90" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5936,10 +5765,10 @@
         <v>82</v>
       </c>
       <c r="M91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N91" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6065,10 +5894,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB330788-779B-44A7-A9AF-516F61C3A348}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6079,7 +5908,7 @@
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6433,7 +6262,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6693,15 +6522,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -6711,8 +6540,12 @@
       <c r="C34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f>1807-59</f>
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -6723,7 +6556,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -6734,7 +6567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -6745,7 +6578,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -6753,19 +6586,31 @@
         <v>319</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
+        <v>449</v>
+      </c>
+      <c r="D38" t="s">
+        <v>448</v>
       </c>
       <c r="E38" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+      <c r="F38" t="s">
+        <v>452</v>
+      </c>
+      <c r="G38" t="s">
+        <v>387</v>
       </c>
       <c r="H38" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="I38" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -6775,8 +6620,14 @@
       <c r="C39" t="s">
         <v>47</v>
       </c>
+      <c r="D39">
+        <v>1748</v>
+      </c>
       <c r="H39" t="s">
-        <v>406</v>
+        <v>443</v>
+      </c>
+      <c r="I39" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -6881,10 +6732,10 @@
         <v>1746</v>
       </c>
       <c r="H60" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I60" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -6898,7 +6749,7 @@
         <v>181</v>
       </c>
       <c r="H61" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I61" t="s">
         <v>375</v>
@@ -6923,16 +6774,105 @@
         <v>336</v>
       </c>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D63">
         <v>1752</v>
       </c>
       <c r="H63" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I63" t="s">
         <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" t="s">
+        <v>377</v>
+      </c>
+      <c r="D76" t="s">
+        <v>455</v>
+      </c>
+      <c r="E76" t="s">
+        <v>442</v>
+      </c>
+      <c r="H76" t="s">
+        <v>454</v>
+      </c>
+      <c r="I76" t="s">
+        <v>387</v>
+      </c>
+      <c r="M76" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>441</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>442</v>
+      </c>
+      <c r="H77" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>445</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>459</v>
+      </c>
+      <c r="E78" t="s">
+        <v>442</v>
+      </c>
+      <c r="H78" t="s">
+        <v>458</v>
+      </c>
+      <c r="I78" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>447</v>
+      </c>
+      <c r="C79" t="s">
+        <v>446</v>
+      </c>
+      <c r="D79" t="s">
+        <v>457</v>
+      </c>
+      <c r="E79" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79" t="s">
+        <v>456</v>
+      </c>
+      <c r="I79" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
